--- a/Dataset Excel/Communique 16.xlsx
+++ b/Dataset Excel/Communique 16.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC34769A-B5A3-4F1C-B4AF-C74092A233EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElhadjMalangDIEDHIOU\Desktop\Workspace\data.covid19sn.com\Dataset Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34A70B2-4CA2-4A25-AB9D-7E90A391096B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D63AA42-D37C-4EEA-9A52-1BB2D5E05BF3}"/>
   </bookViews>
@@ -21,6 +26,8 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="52">
   <si>
     <t>ID Patient</t>
   </si>
@@ -172,12 +179,6 @@
     <t>Sous Traitement</t>
   </si>
   <si>
-    <t>CMIF</t>
-  </si>
-  <si>
-    <t>Centre de Sante Darou Marnane</t>
-  </si>
-  <si>
     <t>Mbour</t>
   </si>
   <si>
@@ -190,16 +191,16 @@
     <t>14/3/2020</t>
   </si>
   <si>
-    <t>Communique 15</t>
-  </si>
-  <si>
-    <t>16/03/2020</t>
-  </si>
-  <si>
     <t>Communique 16</t>
   </si>
   <si>
     <t>17/03/2020</t>
+  </si>
+  <si>
+    <t>CTMIT Fann</t>
+  </si>
+  <si>
+    <t>CTE Touba</t>
   </si>
 </sst>
 </file>
@@ -299,6 +300,34 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data Validation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Communiques Officiels Ministere"/>
+      <sheetName val="Data Validation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
@@ -459,7 +488,7 @@
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>C013FRAM22</v>
+            <v>C013FRAF22</v>
           </cell>
         </row>
       </sheetData>
@@ -886,8 +915,8 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,10 +983,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="str">
         <f>'[1]Communiques Officiels Ministere'!$C$3</f>
@@ -994,15 +1023,15 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="str">
         <f>'[1]Communiques Officiels Ministere'!$C$5</f>
@@ -1039,15 +1068,15 @@
         <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="str">
         <f>'[2]Communiques Officiels Ministere'!$C$5</f>
@@ -1081,15 +1110,15 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$5</f>
@@ -1114,15 +1143,15 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$6</f>
@@ -1147,15 +1176,15 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$7</f>
@@ -1180,15 +1209,15 @@
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$8</f>
@@ -1213,15 +1242,15 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$9</f>
@@ -1246,15 +1275,15 @@
         <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$10</f>
@@ -1279,15 +1308,15 @@
         <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$11</f>
@@ -1312,15 +1341,15 @@
         <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$12</f>
@@ -1345,15 +1374,15 @@
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$13</f>
@@ -1378,15 +1407,15 @@
         <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$14</f>
@@ -1411,15 +1440,15 @@
         <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$15</f>
@@ -1444,15 +1473,15 @@
         <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$16</f>
@@ -1477,15 +1506,15 @@
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$17</f>
@@ -1510,15 +1539,15 @@
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$18</f>
@@ -1543,15 +1572,15 @@
         <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$19</f>
@@ -1576,15 +1605,15 @@
         <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$20</f>
@@ -1609,15 +1638,15 @@
         <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="str">
         <f>'[5]Communiques Officiels Ministere'!$C$21</f>
@@ -1647,13 +1676,16 @@
       <c r="M21" t="s">
         <v>23</v>
       </c>
+      <c r="N21" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" t="str">
         <f>'[5]Communiques Officiels Ministere'!$C$22</f>
@@ -1672,7 +1704,7 @@
         <v>44107</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
         <v>33</v>
@@ -1689,23 +1721,26 @@
       <c r="M22" t="s">
         <v>23</v>
       </c>
+      <c r="N22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="str">
         <f>'[5]Communiques Officiels Ministere'!$C$23</f>
-        <v>C013FRAM22</v>
+        <v>C013FRAF22</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1720,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
@@ -1731,23 +1766,29 @@
       <c r="M23" t="s">
         <v>23</v>
       </c>
+      <c r="N23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" t="str">
         <f>'[6]Communiques Officiels Ministere'!$C$24</f>
         <v>C014SENM23</v>
       </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
         <v>39</v>
@@ -1768,15 +1809,15 @@
         <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" t="str">
         <f>'[6]Communiques Officiels Ministere'!$C$25</f>
@@ -1807,20 +1848,23 @@
         <v>23</v>
       </c>
       <c r="N25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" t="str">
         <f>'[7]Communiques Officiels Ministere'!$C$26</f>
         <v>C015FRAM25</v>
       </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +1881,7 @@
         <v>11</v>
       </c>
       <c r="K26" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1845,17 +1889,29 @@
       <c r="M26" t="s">
         <v>23</v>
       </c>
+      <c r="N26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ref="C27:C70" si="0">UPPER("C"&amp; TEXT(RIGHT($B27,2), "000") &amp; LEFT($H27, 3) &amp; LEFT($J27, 1) &amp; ROW()-1)</f>
-        <v>C01626</v>
+        <v>C016SEN26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
       </c>
       <c r="K27" t="s">
         <v>43</v>
@@ -1866,17 +1922,23 @@
       <c r="M27" t="s">
         <v>23</v>
       </c>
+      <c r="N27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>C01627</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
       </c>
       <c r="K28" t="s">
         <v>43</v>
@@ -1887,17 +1949,23 @@
       <c r="M28" t="s">
         <v>23</v>
       </c>
+      <c r="N28" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>C01628</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
       </c>
       <c r="K29" t="s">
         <v>43</v>
@@ -1908,26 +1976,23 @@
       <c r="M29" t="s">
         <v>23</v>
       </c>
+      <c r="N29" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>C016SEN29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
+        <v>C01629</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
         <v>43</v>
@@ -1939,15 +2004,15 @@
         <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1959,10 +2024,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1974,10 +2039,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1989,10 +2054,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -2004,10 +2069,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -2019,10 +2084,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -2034,10 +2099,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -2049,10 +2114,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -2064,10 +2129,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -2079,10 +2144,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -2094,10 +2159,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -2109,10 +2174,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -2124,10 +2189,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -2139,10 +2204,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -2154,10 +2219,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -2169,10 +2234,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -2184,10 +2249,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -2199,10 +2264,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -2214,10 +2279,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -2229,10 +2294,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
@@ -2244,10 +2309,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -2259,10 +2324,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
@@ -2274,10 +2339,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
@@ -2289,10 +2354,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
@@ -2304,10 +2369,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
@@ -2319,10 +2384,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
@@ -2334,10 +2399,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
@@ -2349,10 +2414,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
@@ -2364,10 +2429,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
@@ -2379,10 +2444,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
@@ -2394,10 +2459,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
@@ -2409,10 +2474,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -2424,10 +2489,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
@@ -2439,10 +2504,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
@@ -2454,10 +2519,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
@@ -2469,10 +2534,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
@@ -2484,10 +2549,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="0"/>
@@ -2499,10 +2564,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="0"/>
@@ -2514,10 +2579,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="0"/>
@@ -2529,10 +2594,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="0"/>
@@ -2548,93 +2613,98 @@
     <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{B6A4068D-F80B-45C9-9915-E17AEAB0B9E2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{07320936-E895-4856-B798-12E03CD9330E}">
           <x14:formula1>
             <xm:f>'Data Validation'!$C$2:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>I1 I24:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{1D3757B8-EBA6-41FE-B843-497EE4EC8CE6}">
-          <x14:formula1>
-            <xm:f>'Data Validation'!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>J1 J24:J1048576</xm:sqref>
+          <xm:sqref>I1 I27:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F355BC1-CADA-43D3-9344-BAD4DA5DBA18}">
           <x14:formula1>
             <xm:f>'Data Validation'!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L1 L24:L1048576</xm:sqref>
+          <xm:sqref>L1 L27:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{FB867CEA-0FB6-45BB-8E6E-360F7BD5B57F}">
           <x14:formula1>
             <xm:f>'Data Validation'!$E$2:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K1 K26:K1048576</xm:sqref>
+          <xm:sqref>K1 K27:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{57685A6D-62B7-4B2B-8956-7B98A2B02974}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{D2F5E247-4971-4FC6-A123-FFC2DBF3587F}">
           <x14:formula1>
             <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 12.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I10:I20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{B8C3F680-1675-4798-B875-5B7EC0B0380A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0904309-83DD-45C6-B822-80091B541B98}">
           <x14:formula1>
             <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 12.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J20</xm:sqref>
+          <xm:sqref>K2:L20 K21:K26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13DE6687-68BB-4738-85FD-E2EA81989B7B}">
-          <x14:formula1>
-            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 12.xlsx]Data Validation'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:L20 K21:K25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{3A25F495-77D9-4DF7-A8FC-A0F56BD8DD29}">
-          <x14:formula1>
-            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 5.xlsx]Data Validation'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{C11F4E2D-0569-4EE2-B139-522529830182}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{1F16C69B-2895-46E1-9581-403EC5C56C51}">
           <x14:formula1>
             <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 5.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{E20A6F81-4158-46F1-9EB9-784B47034B89}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{D9B85726-5AD9-4B7D-A506-0028155AE571}">
           <x14:formula1>
             <xm:f>'https://d.docs.live.net/720d2bd4b83cf84d/Covid19sn/Datasets/Communiques Ministere/[Communique 10.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:J4</xm:sqref>
+          <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{43B2B07A-814A-410A-9C32-4E1D27C52845}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{CF0B64B6-D64A-4392-8232-A96FA855EAA5}">
           <x14:formula1>
             <xm:f>'https://d.docs.live.net/720d2bd4b83cf84d/Covid19sn/Datasets/Communiques Ministere/[Communique 11.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:J9</xm:sqref>
+          <xm:sqref>I5:I9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{85E79310-3844-4044-8D0F-DD2E9C30D03F}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{984FD6C1-61AC-4353-8BB3-AA5892E4A8E3}">
           <x14:formula1>
-            <xm:f>'https://supermalang.sharepoint.com/teams/SenStopCovid/Shared Documents/Dataset Communiques Officiels Ministere/[Communique 13.xlsx]Data Validation'!#REF!</xm:f>
+            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\EMCS\SenStopCovid - Dataset Communiques Officiels Ministere\[Communique 14.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>J21:J23</xm:sqref>
+          <xm:sqref>I24:I25</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89E34658-0BA1-4ADB-BC97-F6CBA1A9AFA6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE48DE94-8532-422E-9562-EDA4F1D18123}">
           <x14:formula1>
-            <xm:f>'https://supermalang.sharepoint.com/teams/SenStopCovid/Shared Documents/Dataset Communiques Officiels Ministere/[Communique 13.xlsx]Data Validation'!#REF!</xm:f>
+            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\EMCS\SenStopCovid - Dataset Communiques Officiels Ministere\[Communique 14.xlsx]Data Validation'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>L24:L25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDCA758C-F0DA-4BB9-93D4-33568F028E5E}">
+          <x14:formula1>
+            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\EMCS\SenStopCovid - Dataset Communiques Officiels Ministere\[Communique 13.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>L21:L23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{B0FE417B-9220-496F-9BF2-971A21107CC7}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{0C4AACDB-A881-4CB5-B483-5593DC2E8AC4}">
           <x14:formula1>
-            <xm:f>'https://supermalang.sharepoint.com/teams/SenStopCovid/Shared Documents/Dataset Communiques Officiels Ministere/[Communique 13.xlsx]Data Validation'!#REF!</xm:f>
+            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\EMCS\SenStopCovid - Dataset Communiques Officiels Ministere\[Communique 13.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I21:I23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{3D38C144-73FB-4F50-A2E8-2DC90FCD0368}">
+          <x14:formula1>
+            <xm:f>'https://supermalang.sharepoint.com/teams/SenStopCovid/Shared Documents/Dataset Communiques Officiels Ministere/[Communique 15.xlsx]Data Validation'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10997E1E-4C6F-4091-9D06-882A50BFD69D}">
+          <x14:formula1>
+            <xm:f>'https://supermalang.sharepoint.com/teams/SenStopCovid/Shared Documents/Dataset Communiques Officiels Ministere/[Communique 15.xlsx]Data Validation'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>L26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E400FEF4-B53E-48FB-B355-A31AD6457C48}">
+          <x14:formula1>
+            <xm:f>'Data Validation'!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2756,4 +2826,193 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038F85C4C18602F4B945AA8D4F86956EE" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5510518b82f36aedba711892c1b561f3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="071c009a-ce67-49e4-abae-6a46c995900d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86b4007d165b35a68039d453d7963aea" ns2:_="">
+    <xsd:import namespace="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="071c009a-ce67-49e4-abae-6a46c995900d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0F1FED8-D89E-43E4-9602-6117DAE7157C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D383199D-42EB-443B-B02D-8154D4D38DEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27EF43D-C66B-46F2-A32E-B2FBE32FA597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>